--- a/07_R/수업시간에 쓸 R데이터셋.xlsx
+++ b/07_R/수업시간에 쓸 R데이터셋.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\big\note\07_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\big\note\07_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ggplot2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="260">
   <si>
     <t>ggplot2::economics</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,10 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출발지연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목적지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,6 +1024,46 @@
   </si>
   <si>
     <t>마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>airquality : 1973년 5월~9월까지 뉴욕 일일 대기 질 측정치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ozone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오존량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solar.R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양복사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 최고 기온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1419,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1577,192 +1613,192 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1788,420 +1824,457 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
+      <c r="A7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>190</v>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
+      <c r="A19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>195</v>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>206</v>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
+      <c r="A32" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s">
-        <v>100</v>
+      <c r="A37" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>197</v>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>199</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>55</v>
+      <c r="A56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>183</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C71" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2215,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2226,172 +2299,172 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2406,10 +2479,13 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2505,7 +2581,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2589,7 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2597,7 @@
         <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2605,7 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2613,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
